--- a/ADRAW.xlsx
+++ b/ADRAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIHAO\Desktop\ICON\PROJECTS\MYLOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83001A17-6F85-44A4-B082-CC9B41C9B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B4A8D-D14E-4BB2-8906-2A04DA5319CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="104">
   <si>
     <t>ADRAW</t>
   </si>
@@ -349,6 +338,12 @@
   </si>
   <si>
     <t>97</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
 </sst>
 </file>
@@ -403,7 +398,107 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -720,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A85"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,422 +830,457 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1160,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30111078-1F7E-4336-B9F0-415D25BB5530}">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A79"/>
+    <sheetView zoomScale="110" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,77 +1308,77 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1258,312 +1388,317 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
